--- a/uploads/class_strength.xlsx
+++ b/uploads/class_strength.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\float_working2\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC4367B-2DF8-4C1E-88F4-4230B884CF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD9E6C-1DC4-48BE-A452-B5B86ABF1DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04AEA855-3334-4620-AE19-CA8C89032C65}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>S8_CSE</t>
   </si>
   <si>
-    <t>S8_Civil</t>
-  </si>
-  <si>
     <t>S8_ME</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>permanent</t>
+  </si>
+  <si>
+    <t>S8_CE</t>
   </si>
 </sst>
 </file>
@@ -500,20 +500,20 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,271 +524,271 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
